--- a/data/product_recipes.xlsx
+++ b/data/product_recipes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturdavydov/Desktop/WEBIA/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturdavydov/Desktop/BU/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AC87A-3CF8-4241-8186-84997D01EC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72432B-853D-4941-AFB1-1E0B942990DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{B44A04C0-A278-C74B-836D-5AC79D9DEF11}"/>
   </bookViews>
@@ -386,12 +386,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -406,12 +412,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -728,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B1F45-468D-E447-BEC7-406101C743FF}">
   <dimension ref="A1:XFD115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105:C114"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,25 +856,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1013,25 +1021,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1156,25 +1164,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -26266,69 +26274,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>1</v>
       </c>
     </row>
